--- a/estadisticas_adivinanza.xlsx
+++ b/estadisticas_adivinanza.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -873,6 +873,83 @@
         <v>6</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-12-22 20:01:11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Solitario</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Difícil</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>695</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Perdido</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-12-22 20:01:44</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2 Jugadores</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Edu</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Difícil</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>34</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Perdido</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/estadisticas_adivinanza.xlsx
+++ b/estadisticas_adivinanza.xlsx
@@ -122,6 +122,146 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Notas de las partidas</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Estadísticas'!I1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Estadísticas'!$A$2:$A$14</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Estadísticas'!$I$2:$I$14</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Partida</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Nota (0-10)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7200000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -950,7 +1090,45 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-12-22 20:17:16</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Solitario</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>AlejandroT</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Difícil</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>70</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Perdido</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/estadisticas_adivinanza.xlsx
+++ b/estadisticas_adivinanza.xlsx
@@ -126,7 +126,6 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -553,7 +552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1105,6 @@
           <t>AlejandroT</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>Difícil</t>
@@ -1125,6 +1123,88 @@
       </c>
       <c r="I14" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-12-22 20:21:21</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2 Jugadores</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Edu</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Difícil</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Ganado</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-12-22 20:26:44</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2 Jugadores</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Edu</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Difícil</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Ganado</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/estadisticas_adivinanza.xlsx
+++ b/estadisticas_adivinanza.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1119,7 +1119,6 @@
           <t>alejandro</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -1137,6 +1136,79 @@
         </is>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-12-23 17:14:56</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Solitario</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>alejandro</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Difícil</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>381</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Perdido</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-12-23 17:17:05</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Solitario</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>pablo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Difícil</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>278</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Perdido</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
